--- a/res/searchlist - 副本.xlsx
+++ b/res/searchlist - 副本.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26502"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{178C0549-4CA1-4F94-9CC2-ED073587FA02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F26AA611-1884-495C-AB19-40E5194117AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-5603" yWindow="7583" windowWidth="20716" windowHeight="13425" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-21945" yWindow="8040" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>Author</author>
+    <author>作者</author>
   </authors>
   <commentList>
     <comment ref="D1" authorId="0" shapeId="0" xr:uid="{185C75CD-7A27-4D65-98E0-F742742D1B31}">
@@ -42,7 +42,7 @@
           <rPr>
             <sz val="11"/>
             <color theme="1"/>
-            <rFont val="Calibri"/>
+            <rFont val="等线"/>
             <family val="2"/>
             <scheme val="minor"/>
           </rPr>
@@ -59,7 +59,7 @@
           <rPr>
             <sz val="11"/>
             <color theme="1"/>
-            <rFont val="Calibri"/>
+            <rFont val="等线"/>
             <family val="2"/>
             <scheme val="minor"/>
           </rPr>
@@ -128,13 +128,13 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -142,7 +142,7 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -210,687 +210,7 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="100">
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="32">
     <dxf>
       <font>
         <color rgb="FF9C5700"/>
@@ -1490,17 +810,17 @@
   <dimension ref="A1:F740"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="B2" sqref="B2:C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" customWidth="1"/>
-    <col min="2" max="2" width="22.28515625" customWidth="1"/>
-    <col min="3" max="3" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" customWidth="1"/>
-    <col min="5" max="5" width="18.42578125" customWidth="1"/>
-    <col min="6" max="6" width="18.7109375" customWidth="1"/>
+    <col min="1" max="1" width="16.875" customWidth="1"/>
+    <col min="2" max="2" width="22.25" customWidth="1"/>
+    <col min="3" max="3" width="20.75" customWidth="1"/>
+    <col min="4" max="4" width="14.25" customWidth="1"/>
+    <col min="5" max="5" width="18.375" customWidth="1"/>
+    <col min="6" max="6" width="18.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -1528,10 +848,10 @@
         <v>6</v>
       </c>
       <c r="B2" s="1">
-        <v>45125</v>
+        <v>45437</v>
       </c>
       <c r="C2" s="1">
-        <v>45126</v>
+        <v>45439</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
@@ -1548,10 +868,10 @@
         <v>9</v>
       </c>
       <c r="B3" s="1">
-        <v>45127</v>
+        <v>45437</v>
       </c>
       <c r="C3" s="1">
-        <v>45128</v>
+        <v>45439</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
@@ -1568,10 +888,10 @@
         <v>6</v>
       </c>
       <c r="B4" s="1">
-        <v>45125</v>
+        <v>45437</v>
       </c>
       <c r="C4" s="1">
-        <v>45126</v>
+        <v>45439</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -1588,10 +908,10 @@
         <v>9</v>
       </c>
       <c r="B5" s="1">
-        <v>45125</v>
+        <v>45437</v>
       </c>
       <c r="C5" s="1">
-        <v>45126</v>
+        <v>45439</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
@@ -1608,10 +928,10 @@
         <v>10</v>
       </c>
       <c r="B6" s="1">
-        <v>45125</v>
+        <v>45437</v>
       </c>
       <c r="C6" s="1">
-        <v>45126</v>
+        <v>45439</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>
@@ -5957,404 +5277,132 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="A9:A11 A2:A7">
-    <cfRule type="containsText" dxfId="99" priority="125" operator="containsText" text="N/A">
+  <conditionalFormatting sqref="A2:A98">
+    <cfRule type="containsText" dxfId="31" priority="103" operator="containsText" text="N/A">
       <formula>NOT(ISERROR(SEARCH("N/A",A2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="98" priority="126" operator="containsText" text="N/A">
+    <cfRule type="containsText" dxfId="30" priority="104" operator="containsText" text="N/A">
       <formula>NOT(ISERROR(SEARCH("N/A",A2)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A12:A56">
-    <cfRule type="containsText" dxfId="97" priority="123" operator="containsText" text="N/A">
-      <formula>NOT(ISERROR(SEARCH("N/A",A12)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="96" priority="124" operator="containsText" text="N/A">
-      <formula>NOT(ISERROR(SEARCH("N/A",A12)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A57:A68">
-    <cfRule type="containsText" dxfId="95" priority="121" operator="containsText" text="N/A">
-      <formula>NOT(ISERROR(SEARCH("N/A",A57)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="94" priority="122" operator="containsText" text="N/A">
-      <formula>NOT(ISERROR(SEARCH("N/A",A57)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A8">
-    <cfRule type="containsText" dxfId="93" priority="107" operator="containsText" text="N/A">
-      <formula>NOT(ISERROR(SEARCH("N/A",A8)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="92" priority="108" operator="containsText" text="N/A">
-      <formula>NOT(ISERROR(SEARCH("N/A",A8)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A69:A98">
-    <cfRule type="containsText" dxfId="91" priority="103" operator="containsText" text="N/A">
-      <formula>NOT(ISERROR(SEARCH("N/A",A69)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="90" priority="104" operator="containsText" text="N/A">
-      <formula>NOT(ISERROR(SEARCH("N/A",A69)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A130:A133 A135:A137 A111:A117">
-    <cfRule type="containsText" dxfId="89" priority="89" operator="containsText" text="N/A">
+  <conditionalFormatting sqref="A111">
+    <cfRule type="containsText" dxfId="29" priority="73" operator="containsText" text="N/A">
       <formula>NOT(ISERROR(SEARCH("N/A",A111)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="88" priority="90" operator="containsText" text="N/A">
+    <cfRule type="containsText" dxfId="28" priority="74" operator="containsText" text="N/A">
       <formula>NOT(ISERROR(SEARCH("N/A",A111)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A138:A182">
-    <cfRule type="containsText" dxfId="87" priority="87" operator="containsText" text="N/A">
-      <formula>NOT(ISERROR(SEARCH("N/A",A138)))</formula>
+  <conditionalFormatting sqref="A111:A224">
+    <cfRule type="containsText" dxfId="27" priority="77" operator="containsText" text="N/A">
+      <formula>NOT(ISERROR(SEARCH("N/A",A111)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="86" priority="88" operator="containsText" text="N/A">
-      <formula>NOT(ISERROR(SEARCH("N/A",A138)))</formula>
+    <cfRule type="containsText" dxfId="26" priority="78" operator="containsText" text="N/A">
+      <formula>NOT(ISERROR(SEARCH("N/A",A111)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A183:A194">
-    <cfRule type="containsText" dxfId="85" priority="85" operator="containsText" text="N/A">
-      <formula>NOT(ISERROR(SEARCH("N/A",A183)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="84" priority="86" operator="containsText" text="N/A">
-      <formula>NOT(ISERROR(SEARCH("N/A",A183)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A113">
-    <cfRule type="containsText" dxfId="83" priority="83" operator="containsText" text="N/A">
+  <conditionalFormatting sqref="A113:A115">
+    <cfRule type="containsText" dxfId="25" priority="75" operator="containsText" text="N/A">
       <formula>NOT(ISERROR(SEARCH("N/A",A113)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="82" priority="84" operator="containsText" text="N/A">
+    <cfRule type="containsText" dxfId="24" priority="76" operator="containsText" text="N/A">
       <formula>NOT(ISERROR(SEARCH("N/A",A113)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A118:A129">
-    <cfRule type="containsText" dxfId="81" priority="81" operator="containsText" text="N/A">
-      <formula>NOT(ISERROR(SEARCH("N/A",A118)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="80" priority="82" operator="containsText" text="N/A">
-      <formula>NOT(ISERROR(SEARCH("N/A",A118)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A134">
-    <cfRule type="containsText" dxfId="79" priority="79" operator="containsText" text="N/A">
-      <formula>NOT(ISERROR(SEARCH("N/A",A134)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="78" priority="80" operator="containsText" text="N/A">
-      <formula>NOT(ISERROR(SEARCH("N/A",A134)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A195:A224">
-    <cfRule type="containsText" dxfId="77" priority="77" operator="containsText" text="N/A">
-      <formula>NOT(ISERROR(SEARCH("N/A",A195)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="76" priority="78" operator="containsText" text="N/A">
-      <formula>NOT(ISERROR(SEARCH("N/A",A195)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A114:A115">
-    <cfRule type="containsText" dxfId="75" priority="75" operator="containsText" text="N/A">
-      <formula>NOT(ISERROR(SEARCH("N/A",A114)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="74" priority="76" operator="containsText" text="N/A">
-      <formula>NOT(ISERROR(SEARCH("N/A",A114)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A111">
-    <cfRule type="containsText" dxfId="73" priority="73" operator="containsText" text="N/A">
-      <formula>NOT(ISERROR(SEARCH("N/A",A111)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="72" priority="74" operator="containsText" text="N/A">
-      <formula>NOT(ISERROR(SEARCH("N/A",A111)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A256:A259 A261:A263 A237:A243">
-    <cfRule type="containsText" dxfId="71" priority="71" operator="containsText" text="N/A">
+  <conditionalFormatting sqref="A237">
+    <cfRule type="containsText" dxfId="23" priority="55" operator="containsText" text="N/A">
       <formula>NOT(ISERROR(SEARCH("N/A",A237)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="70" priority="72" operator="containsText" text="N/A">
+    <cfRule type="containsText" dxfId="22" priority="56" operator="containsText" text="N/A">
       <formula>NOT(ISERROR(SEARCH("N/A",A237)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A264:A308">
-    <cfRule type="containsText" dxfId="69" priority="69" operator="containsText" text="N/A">
-      <formula>NOT(ISERROR(SEARCH("N/A",A264)))</formula>
+  <conditionalFormatting sqref="A237:A350">
+    <cfRule type="containsText" dxfId="21" priority="59" operator="containsText" text="N/A">
+      <formula>NOT(ISERROR(SEARCH("N/A",A237)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="68" priority="70" operator="containsText" text="N/A">
-      <formula>NOT(ISERROR(SEARCH("N/A",A264)))</formula>
+    <cfRule type="containsText" dxfId="20" priority="60" operator="containsText" text="N/A">
+      <formula>NOT(ISERROR(SEARCH("N/A",A237)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A309:A320">
-    <cfRule type="containsText" dxfId="67" priority="67" operator="containsText" text="N/A">
-      <formula>NOT(ISERROR(SEARCH("N/A",A309)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="66" priority="68" operator="containsText" text="N/A">
-      <formula>NOT(ISERROR(SEARCH("N/A",A309)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A239">
-    <cfRule type="containsText" dxfId="65" priority="65" operator="containsText" text="N/A">
+  <conditionalFormatting sqref="A239:A241">
+    <cfRule type="containsText" dxfId="19" priority="57" operator="containsText" text="N/A">
       <formula>NOT(ISERROR(SEARCH("N/A",A239)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="64" priority="66" operator="containsText" text="N/A">
+    <cfRule type="containsText" dxfId="18" priority="58" operator="containsText" text="N/A">
       <formula>NOT(ISERROR(SEARCH("N/A",A239)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A244:A255">
-    <cfRule type="containsText" dxfId="63" priority="63" operator="containsText" text="N/A">
-      <formula>NOT(ISERROR(SEARCH("N/A",A244)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="62" priority="64" operator="containsText" text="N/A">
-      <formula>NOT(ISERROR(SEARCH("N/A",A244)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A260">
-    <cfRule type="containsText" dxfId="61" priority="61" operator="containsText" text="N/A">
-      <formula>NOT(ISERROR(SEARCH("N/A",A260)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="60" priority="62" operator="containsText" text="N/A">
-      <formula>NOT(ISERROR(SEARCH("N/A",A260)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A321:A350">
-    <cfRule type="containsText" dxfId="59" priority="59" operator="containsText" text="N/A">
-      <formula>NOT(ISERROR(SEARCH("N/A",A321)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="58" priority="60" operator="containsText" text="N/A">
-      <formula>NOT(ISERROR(SEARCH("N/A",A321)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A240:A241">
-    <cfRule type="containsText" dxfId="57" priority="57" operator="containsText" text="N/A">
-      <formula>NOT(ISERROR(SEARCH("N/A",A240)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="56" priority="58" operator="containsText" text="N/A">
-      <formula>NOT(ISERROR(SEARCH("N/A",A240)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A237">
-    <cfRule type="containsText" dxfId="55" priority="55" operator="containsText" text="N/A">
-      <formula>NOT(ISERROR(SEARCH("N/A",A237)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="54" priority="56" operator="containsText" text="N/A">
-      <formula>NOT(ISERROR(SEARCH("N/A",A237)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A382:A385 A387:A389 A363:A369">
-    <cfRule type="containsText" dxfId="53" priority="53" operator="containsText" text="N/A">
+  <conditionalFormatting sqref="A363">
+    <cfRule type="containsText" dxfId="17" priority="37" operator="containsText" text="N/A">
       <formula>NOT(ISERROR(SEARCH("N/A",A363)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="52" priority="54" operator="containsText" text="N/A">
+    <cfRule type="containsText" dxfId="16" priority="38" operator="containsText" text="N/A">
       <formula>NOT(ISERROR(SEARCH("N/A",A363)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A390:A434">
-    <cfRule type="containsText" dxfId="51" priority="51" operator="containsText" text="N/A">
-      <formula>NOT(ISERROR(SEARCH("N/A",A390)))</formula>
+  <conditionalFormatting sqref="A363:A476">
+    <cfRule type="containsText" dxfId="15" priority="41" operator="containsText" text="N/A">
+      <formula>NOT(ISERROR(SEARCH("N/A",A363)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="50" priority="52" operator="containsText" text="N/A">
-      <formula>NOT(ISERROR(SEARCH("N/A",A390)))</formula>
+    <cfRule type="containsText" dxfId="14" priority="42" operator="containsText" text="N/A">
+      <formula>NOT(ISERROR(SEARCH("N/A",A363)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A435:A446">
-    <cfRule type="containsText" dxfId="49" priority="49" operator="containsText" text="N/A">
-      <formula>NOT(ISERROR(SEARCH("N/A",A435)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="48" priority="50" operator="containsText" text="N/A">
-      <formula>NOT(ISERROR(SEARCH("N/A",A435)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A365">
-    <cfRule type="containsText" dxfId="47" priority="47" operator="containsText" text="N/A">
+  <conditionalFormatting sqref="A365:A367">
+    <cfRule type="containsText" dxfId="13" priority="39" operator="containsText" text="N/A">
       <formula>NOT(ISERROR(SEARCH("N/A",A365)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="46" priority="48" operator="containsText" text="N/A">
+    <cfRule type="containsText" dxfId="12" priority="40" operator="containsText" text="N/A">
       <formula>NOT(ISERROR(SEARCH("N/A",A365)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A370:A381">
-    <cfRule type="containsText" dxfId="45" priority="45" operator="containsText" text="N/A">
-      <formula>NOT(ISERROR(SEARCH("N/A",A370)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="44" priority="46" operator="containsText" text="N/A">
-      <formula>NOT(ISERROR(SEARCH("N/A",A370)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A386">
-    <cfRule type="containsText" dxfId="43" priority="43" operator="containsText" text="N/A">
-      <formula>NOT(ISERROR(SEARCH("N/A",A386)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="42" priority="44" operator="containsText" text="N/A">
-      <formula>NOT(ISERROR(SEARCH("N/A",A386)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A447:A476">
-    <cfRule type="containsText" dxfId="41" priority="41" operator="containsText" text="N/A">
-      <formula>NOT(ISERROR(SEARCH("N/A",A447)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="40" priority="42" operator="containsText" text="N/A">
-      <formula>NOT(ISERROR(SEARCH("N/A",A447)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A366:A367">
-    <cfRule type="containsText" dxfId="39" priority="39" operator="containsText" text="N/A">
-      <formula>NOT(ISERROR(SEARCH("N/A",A366)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="38" priority="40" operator="containsText" text="N/A">
-      <formula>NOT(ISERROR(SEARCH("N/A",A366)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A363">
-    <cfRule type="containsText" dxfId="37" priority="37" operator="containsText" text="N/A">
-      <formula>NOT(ISERROR(SEARCH("N/A",A363)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="36" priority="38" operator="containsText" text="N/A">
-      <formula>NOT(ISERROR(SEARCH("N/A",A363)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A508:A511 A513:A515 A489:A495">
-    <cfRule type="containsText" dxfId="35" priority="35" operator="containsText" text="N/A">
+  <conditionalFormatting sqref="A489">
+    <cfRule type="containsText" dxfId="11" priority="19" operator="containsText" text="N/A">
       <formula>NOT(ISERROR(SEARCH("N/A",A489)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="34" priority="36" operator="containsText" text="N/A">
+    <cfRule type="containsText" dxfId="10" priority="20" operator="containsText" text="N/A">
       <formula>NOT(ISERROR(SEARCH("N/A",A489)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A516:A560">
-    <cfRule type="containsText" dxfId="33" priority="33" operator="containsText" text="N/A">
-      <formula>NOT(ISERROR(SEARCH("N/A",A516)))</formula>
+  <conditionalFormatting sqref="A489:A602">
+    <cfRule type="containsText" dxfId="9" priority="23" operator="containsText" text="N/A">
+      <formula>NOT(ISERROR(SEARCH("N/A",A489)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="32" priority="34" operator="containsText" text="N/A">
-      <formula>NOT(ISERROR(SEARCH("N/A",A516)))</formula>
+    <cfRule type="containsText" dxfId="8" priority="24" operator="containsText" text="N/A">
+      <formula>NOT(ISERROR(SEARCH("N/A",A489)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A561:A572">
-    <cfRule type="containsText" dxfId="31" priority="31" operator="containsText" text="N/A">
-      <formula>NOT(ISERROR(SEARCH("N/A",A561)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="30" priority="32" operator="containsText" text="N/A">
-      <formula>NOT(ISERROR(SEARCH("N/A",A561)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A491">
-    <cfRule type="containsText" dxfId="29" priority="29" operator="containsText" text="N/A">
+  <conditionalFormatting sqref="A491:A493">
+    <cfRule type="containsText" dxfId="7" priority="21" operator="containsText" text="N/A">
       <formula>NOT(ISERROR(SEARCH("N/A",A491)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="28" priority="30" operator="containsText" text="N/A">
+    <cfRule type="containsText" dxfId="6" priority="22" operator="containsText" text="N/A">
       <formula>NOT(ISERROR(SEARCH("N/A",A491)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A496:A507">
-    <cfRule type="containsText" dxfId="27" priority="27" operator="containsText" text="N/A">
-      <formula>NOT(ISERROR(SEARCH("N/A",A496)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="26" priority="28" operator="containsText" text="N/A">
-      <formula>NOT(ISERROR(SEARCH("N/A",A496)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A512">
-    <cfRule type="containsText" dxfId="25" priority="25" operator="containsText" text="N/A">
-      <formula>NOT(ISERROR(SEARCH("N/A",A512)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="24" priority="26" operator="containsText" text="N/A">
-      <formula>NOT(ISERROR(SEARCH("N/A",A512)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A573:A602">
-    <cfRule type="containsText" dxfId="23" priority="23" operator="containsText" text="N/A">
-      <formula>NOT(ISERROR(SEARCH("N/A",A573)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="24" operator="containsText" text="N/A">
-      <formula>NOT(ISERROR(SEARCH("N/A",A573)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A492:A493">
-    <cfRule type="containsText" dxfId="21" priority="21" operator="containsText" text="N/A">
-      <formula>NOT(ISERROR(SEARCH("N/A",A492)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="22" operator="containsText" text="N/A">
-      <formula>NOT(ISERROR(SEARCH("N/A",A492)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A489">
-    <cfRule type="containsText" dxfId="19" priority="19" operator="containsText" text="N/A">
-      <formula>NOT(ISERROR(SEARCH("N/A",A489)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="20" operator="containsText" text="N/A">
-      <formula>NOT(ISERROR(SEARCH("N/A",A489)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A634:A637 A639:A641 A615:A621">
-    <cfRule type="containsText" dxfId="17" priority="17" operator="containsText" text="N/A">
+  <conditionalFormatting sqref="A615">
+    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="N/A">
       <formula>NOT(ISERROR(SEARCH("N/A",A615)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="18" operator="containsText" text="N/A">
+    <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="N/A">
       <formula>NOT(ISERROR(SEARCH("N/A",A615)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A642:A686">
-    <cfRule type="containsText" dxfId="15" priority="15" operator="containsText" text="N/A">
-      <formula>NOT(ISERROR(SEARCH("N/A",A642)))</formula>
+  <conditionalFormatting sqref="A615:A728">
+    <cfRule type="containsText" dxfId="3" priority="5" operator="containsText" text="N/A">
+      <formula>NOT(ISERROR(SEARCH("N/A",A615)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="16" operator="containsText" text="N/A">
-      <formula>NOT(ISERROR(SEARCH("N/A",A642)))</formula>
+    <cfRule type="containsText" dxfId="2" priority="6" operator="containsText" text="N/A">
+      <formula>NOT(ISERROR(SEARCH("N/A",A615)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A687:A698">
-    <cfRule type="containsText" dxfId="13" priority="13" operator="containsText" text="N/A">
-      <formula>NOT(ISERROR(SEARCH("N/A",A687)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="14" operator="containsText" text="N/A">
-      <formula>NOT(ISERROR(SEARCH("N/A",A687)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A617">
-    <cfRule type="containsText" dxfId="11" priority="11" operator="containsText" text="N/A">
+  <conditionalFormatting sqref="A617:A619">
+    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="N/A">
       <formula>NOT(ISERROR(SEARCH("N/A",A617)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="12" operator="containsText" text="N/A">
+    <cfRule type="containsText" dxfId="0" priority="4" operator="containsText" text="N/A">
       <formula>NOT(ISERROR(SEARCH("N/A",A617)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A622:A633">
-    <cfRule type="containsText" dxfId="9" priority="9" operator="containsText" text="N/A">
-      <formula>NOT(ISERROR(SEARCH("N/A",A622)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="10" operator="containsText" text="N/A">
-      <formula>NOT(ISERROR(SEARCH("N/A",A622)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A638">
-    <cfRule type="containsText" dxfId="7" priority="7" operator="containsText" text="N/A">
-      <formula>NOT(ISERROR(SEARCH("N/A",A638)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="8" operator="containsText" text="N/A">
-      <formula>NOT(ISERROR(SEARCH("N/A",A638)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A699:A728">
-    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="N/A">
-      <formula>NOT(ISERROR(SEARCH("N/A",A699)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="6" operator="containsText" text="N/A">
-      <formula>NOT(ISERROR(SEARCH("N/A",A699)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A618:A619">
-    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="N/A">
-      <formula>NOT(ISERROR(SEARCH("N/A",A618)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="N/A">
-      <formula>NOT(ISERROR(SEARCH("N/A",A618)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A615">
-    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="N/A">
-      <formula>NOT(ISERROR(SEARCH("N/A",A615)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="N/A">
-      <formula>NOT(ISERROR(SEARCH("N/A",A615)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6364,26 +5412,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="726e3e44-31dc-4c4d-a2b7-73001e1ed204">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="a9643c10-2e91-402c-8cb7-0ab76c325e36" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101005125C45B4B240B4DAD2BF56E04A654EF" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="f543fffae326af8ce883ab43403167f4">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="726e3e44-31dc-4c4d-a2b7-73001e1ed204" xmlns:ns3="a9643c10-2e91-402c-8cb7-0ab76c325e36" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8fe2d1359a036be71f668301f2175438" ns2:_="" ns3:_="">
     <xsd:import namespace="726e3e44-31dc-4c4d-a2b7-73001e1ed204"/>
@@ -6626,14 +5654,60 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="726e3e44-31dc-4c4d-a2b7-73001e1ed204">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="a9643c10-2e91-402c-8cb7-0ab76c325e36" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B0970B50-FB58-4F4C-8B98-0182BA5F4A0A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A4B1377F-2044-4EE4-A384-2DC01BD0289A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="726e3e44-31dc-4c4d-a2b7-73001e1ed204"/>
+    <ds:schemaRef ds:uri="a9643c10-2e91-402c-8cb7-0ab76c325e36"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C6A159A8-4F9A-4339-90ED-D69B23EE0EC6}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C6A159A8-4F9A-4339-90ED-D69B23EE0EC6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A4B1377F-2044-4EE4-A384-2DC01BD0289A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B0970B50-FB58-4F4C-8B98-0182BA5F4A0A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="726e3e44-31dc-4c4d-a2b7-73001e1ed204"/>
+    <ds:schemaRef ds:uri="a9643c10-2e91-402c-8cb7-0ab76c325e36"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>